--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="177">
   <si>
     <t>ID</t>
   </si>
@@ -91,7 +91,15 @@
     <t>Авторизация в приложении без ввода пароля</t>
   </si>
   <si>
+    <t>Данные для авторизации:
+login2/</t>
+  </si>
+  <si>
     <t>Авторизация в приложении без ввода логина</t>
+  </si>
+  <si>
+    <t>Данные для авторизации:
+/password2</t>
   </si>
   <si>
     <t>Валидация поля Login формы авторизации (спецсимволы)</t>
@@ -1368,7 +1376,7 @@
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="15" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>11</v>
@@ -1422,11 +1430,11 @@
         <v>5.0</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="15" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>11</v>
@@ -1480,10 +1488,10 @@
         <v>6.0</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>10</v>
@@ -1495,7 +1503,7 @@
         <v>12</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I24" s="18"/>
     </row>
@@ -1506,7 +1514,7 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1540,10 +1548,10 @@
         <v>7.0</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>10</v>
@@ -1555,7 +1563,7 @@
         <v>12</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I28" s="18"/>
     </row>
@@ -1578,7 +1586,7 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1597,7 +1605,7 @@
     </row>
     <row r="32">
       <c r="B32" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -1612,20 +1620,20 @@
         <v>8.0</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D33" s="25"/>
       <c r="E33" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I33" s="26"/>
     </row>
@@ -1634,26 +1642,26 @@
         <v>9.0</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D34" s="25"/>
       <c r="E34" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I34" s="26"/>
     </row>
     <row r="35">
       <c r="B35" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -1668,20 +1676,20 @@
         <v>10.0</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D36" s="16"/>
       <c r="E36" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F36" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I36" s="18"/>
     </row>
@@ -1692,7 +1700,7 @@
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
       <c r="G37" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1704,7 +1712,7 @@
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
       <c r="G38" s="20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1716,7 +1724,7 @@
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
       <c r="G39" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1728,7 +1736,7 @@
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
       <c r="G40" s="20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1740,7 +1748,7 @@
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1752,7 +1760,7 @@
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
       <c r="G42" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1764,7 +1772,7 @@
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H43" s="21"/>
       <c r="I43" s="21"/>
@@ -1774,20 +1782,20 @@
         <v>11.0</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D44" s="16"/>
       <c r="E44" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I44" s="18"/>
     </row>
@@ -1798,7 +1806,7 @@
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
       <c r="G45" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1810,7 +1818,7 @@
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1822,7 +1830,7 @@
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
       <c r="G47" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1834,7 +1842,7 @@
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
       <c r="G48" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1846,7 +1854,7 @@
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
       <c r="G49" s="20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1858,7 +1866,7 @@
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
       <c r="G50" s="22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="21"/>
@@ -1868,20 +1876,20 @@
         <v>12.0</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D51" s="16"/>
       <c r="E51" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F51" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I51" s="18"/>
     </row>
@@ -1892,7 +1900,7 @@
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
       <c r="G52" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1904,7 +1912,7 @@
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
       <c r="G53" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -1916,7 +1924,7 @@
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
       <c r="G54" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -1928,7 +1936,7 @@
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
       <c r="G55" s="22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
@@ -1938,20 +1946,20 @@
         <v>13.0</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H56" s="28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I56" s="18"/>
     </row>
@@ -1962,7 +1970,7 @@
       <c r="E57" s="19"/>
       <c r="F57" s="19"/>
       <c r="G57" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H57" s="29"/>
       <c r="I57" s="19"/>
@@ -1974,7 +1982,7 @@
       <c r="E58" s="19"/>
       <c r="F58" s="19"/>
       <c r="G58" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H58" s="29"/>
       <c r="I58" s="19"/>
@@ -1986,7 +1994,7 @@
       <c r="E59" s="19"/>
       <c r="F59" s="19"/>
       <c r="G59" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H59" s="29"/>
       <c r="I59" s="19"/>
@@ -1998,7 +2006,7 @@
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
       <c r="G60" s="22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H60" s="13"/>
       <c r="I60" s="21"/>
@@ -2008,20 +2016,20 @@
         <v>14.0</v>
       </c>
       <c r="C61" s="28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D61" s="16"/>
       <c r="E61" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H61" s="28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I61" s="18"/>
     </row>
@@ -2032,7 +2040,7 @@
       <c r="E62" s="19"/>
       <c r="F62" s="19"/>
       <c r="G62" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H62" s="29"/>
       <c r="I62" s="19"/>
@@ -2044,7 +2052,7 @@
       <c r="E63" s="19"/>
       <c r="F63" s="19"/>
       <c r="G63" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H63" s="29"/>
       <c r="I63" s="19"/>
@@ -2056,7 +2064,7 @@
       <c r="E64" s="19"/>
       <c r="F64" s="19"/>
       <c r="G64" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H64" s="29"/>
       <c r="I64" s="19"/>
@@ -2068,7 +2076,7 @@
       <c r="E65" s="19"/>
       <c r="F65" s="19"/>
       <c r="G65" s="28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H65" s="29"/>
       <c r="I65" s="19"/>
@@ -2080,7 +2088,7 @@
       <c r="E66" s="21"/>
       <c r="F66" s="21"/>
       <c r="G66" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="21"/>
@@ -2090,20 +2098,20 @@
         <v>15.0</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D67" s="16"/>
       <c r="E67" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I67" s="18"/>
     </row>
@@ -2114,7 +2122,7 @@
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
       <c r="G68" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2126,7 +2134,7 @@
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
       <c r="G69" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2138,7 +2146,7 @@
       <c r="E70" s="21"/>
       <c r="F70" s="21"/>
       <c r="G70" s="22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H70" s="21"/>
       <c r="I70" s="21"/>
@@ -2148,20 +2156,20 @@
         <v>16.0</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D71" s="16"/>
       <c r="E71" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G71" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I71" s="18"/>
     </row>
@@ -2172,7 +2180,7 @@
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
       <c r="G72" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2184,7 +2192,7 @@
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
       <c r="G73" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2196,7 +2204,7 @@
       <c r="E74" s="21"/>
       <c r="F74" s="21"/>
       <c r="G74" s="22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
@@ -2206,20 +2214,20 @@
         <v>17.0</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D75" s="16"/>
       <c r="E75" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G75" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I75" s="18"/>
     </row>
@@ -2230,7 +2238,7 @@
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
       <c r="G76" s="20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2242,7 +2250,7 @@
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
       <c r="G77" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2254,7 +2262,7 @@
       <c r="E78" s="21"/>
       <c r="F78" s="21"/>
       <c r="G78" s="22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
@@ -2264,20 +2272,20 @@
         <v>18.0</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D79" s="16"/>
       <c r="E79" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I79" s="18"/>
     </row>
@@ -2288,7 +2296,7 @@
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
       <c r="G80" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2300,7 +2308,7 @@
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
       <c r="G81" s="20" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2312,7 +2320,7 @@
       <c r="E82" s="21"/>
       <c r="F82" s="21"/>
       <c r="G82" s="22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H82" s="21"/>
       <c r="I82" s="21"/>
@@ -2322,20 +2330,20 @@
         <v>19.0</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I83" s="18"/>
     </row>
@@ -2346,7 +2354,7 @@
       <c r="E84" s="19"/>
       <c r="F84" s="19"/>
       <c r="G84" s="17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2358,7 +2366,7 @@
       <c r="E85" s="19"/>
       <c r="F85" s="19"/>
       <c r="G85" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2370,7 +2378,7 @@
       <c r="E86" s="21"/>
       <c r="F86" s="21"/>
       <c r="G86" s="22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H86" s="21"/>
       <c r="I86" s="21"/>
@@ -2380,20 +2388,20 @@
         <v>20.0</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I87" s="18"/>
     </row>
@@ -2404,7 +2412,7 @@
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
       <c r="G88" s="17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2416,7 +2424,7 @@
       <c r="E89" s="19"/>
       <c r="F89" s="19"/>
       <c r="G89" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2428,14 +2436,14 @@
       <c r="E90" s="21"/>
       <c r="F90" s="21"/>
       <c r="G90" s="22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
     </row>
     <row r="91" ht="19.5" customHeight="1">
       <c r="B91" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
@@ -2450,20 +2458,20 @@
         <v>21.0</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F92" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G92" s="27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I92" s="18"/>
     </row>
@@ -2474,7 +2482,7 @@
       <c r="E93" s="21"/>
       <c r="F93" s="21"/>
       <c r="G93" s="22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H93" s="21"/>
       <c r="I93" s="21"/>
@@ -2484,20 +2492,20 @@
         <v>22.0</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H94" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I94" s="18"/>
     </row>
@@ -2508,7 +2516,7 @@
       <c r="E95" s="21"/>
       <c r="F95" s="21"/>
       <c r="G95" s="22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H95" s="21"/>
       <c r="I95" s="21"/>
@@ -2518,20 +2526,20 @@
         <v>23.0</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G96" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I96" s="18"/>
     </row>
@@ -2542,7 +2550,7 @@
       <c r="E97" s="19"/>
       <c r="F97" s="19"/>
       <c r="G97" s="20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -2554,7 +2562,7 @@
       <c r="E98" s="19"/>
       <c r="F98" s="19"/>
       <c r="G98" s="17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -2566,7 +2574,7 @@
       <c r="E99" s="19"/>
       <c r="F99" s="19"/>
       <c r="G99" s="20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -2578,7 +2586,7 @@
       <c r="E100" s="21"/>
       <c r="F100" s="21"/>
       <c r="G100" s="22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H100" s="21"/>
       <c r="I100" s="21"/>
@@ -2588,20 +2596,20 @@
         <v>24.0</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D101" s="16"/>
       <c r="E101" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G101" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H101" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I101" s="18"/>
     </row>
@@ -2612,7 +2620,7 @@
       <c r="E102" s="19"/>
       <c r="F102" s="19"/>
       <c r="G102" s="20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -2624,7 +2632,7 @@
       <c r="E103" s="19"/>
       <c r="F103" s="19"/>
       <c r="G103" s="17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -2636,7 +2644,7 @@
       <c r="E104" s="19"/>
       <c r="F104" s="19"/>
       <c r="G104" s="20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -2648,7 +2656,7 @@
       <c r="E105" s="21"/>
       <c r="F105" s="21"/>
       <c r="G105" s="22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H105" s="21"/>
       <c r="I105" s="21"/>
@@ -2658,20 +2666,20 @@
         <v>25.0</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D106" s="16"/>
       <c r="E106" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G106" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H106" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I106" s="18"/>
     </row>
@@ -2682,7 +2690,7 @@
       <c r="E107" s="19"/>
       <c r="F107" s="19"/>
       <c r="G107" s="20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -2694,7 +2702,7 @@
       <c r="E108" s="19"/>
       <c r="F108" s="19"/>
       <c r="G108" s="17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -2706,7 +2714,7 @@
       <c r="E109" s="19"/>
       <c r="F109" s="19"/>
       <c r="G109" s="20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -2718,14 +2726,14 @@
       <c r="E110" s="21"/>
       <c r="F110" s="21"/>
       <c r="G110" s="22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H110" s="21"/>
       <c r="I110" s="21"/>
     </row>
     <row r="111">
       <c r="B111" s="11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
@@ -2740,20 +2748,20 @@
         <v>26.0</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D112" s="16"/>
       <c r="E112" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F112" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G112" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H112" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I112" s="18"/>
     </row>
@@ -2764,7 +2772,7 @@
       <c r="E113" s="19"/>
       <c r="F113" s="19"/>
       <c r="G113" s="20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -2776,7 +2784,7 @@
       <c r="E114" s="19"/>
       <c r="F114" s="19"/>
       <c r="G114" s="20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -2788,7 +2796,7 @@
       <c r="E115" s="19"/>
       <c r="F115" s="19"/>
       <c r="G115" s="20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -2800,7 +2808,7 @@
       <c r="E116" s="19"/>
       <c r="F116" s="19"/>
       <c r="G116" s="20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -2812,7 +2820,7 @@
       <c r="E117" s="19"/>
       <c r="F117" s="19"/>
       <c r="G117" s="20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -2824,7 +2832,7 @@
       <c r="E118" s="19"/>
       <c r="F118" s="19"/>
       <c r="G118" s="20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -2836,7 +2844,7 @@
       <c r="E119" s="19"/>
       <c r="F119" s="19"/>
       <c r="G119" s="20" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -2848,7 +2856,7 @@
       <c r="E120" s="21"/>
       <c r="F120" s="21"/>
       <c r="G120" s="22" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H120" s="21"/>
       <c r="I120" s="21"/>
@@ -2858,20 +2866,20 @@
         <v>27.0</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D121" s="16"/>
       <c r="E121" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F121" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G121" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I121" s="18"/>
     </row>
@@ -2882,7 +2890,7 @@
       <c r="E122" s="19"/>
       <c r="F122" s="19"/>
       <c r="G122" s="20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
@@ -2894,7 +2902,7 @@
       <c r="E123" s="19"/>
       <c r="F123" s="19"/>
       <c r="G123" s="20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -2906,7 +2914,7 @@
       <c r="E124" s="19"/>
       <c r="F124" s="19"/>
       <c r="G124" s="20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -2918,7 +2926,7 @@
       <c r="E125" s="19"/>
       <c r="F125" s="19"/>
       <c r="G125" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -2930,7 +2938,7 @@
       <c r="E126" s="21"/>
       <c r="F126" s="21"/>
       <c r="G126" s="22" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H126" s="21"/>
       <c r="I126" s="21"/>
@@ -2940,20 +2948,20 @@
         <v>28.0</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D127" s="16"/>
       <c r="E127" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G127" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H127" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I127" s="18"/>
     </row>
@@ -2964,7 +2972,7 @@
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
       <c r="G128" s="20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -2976,7 +2984,7 @@
       <c r="E129" s="19"/>
       <c r="F129" s="19"/>
       <c r="G129" s="20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -2988,7 +2996,7 @@
       <c r="E130" s="19"/>
       <c r="F130" s="19"/>
       <c r="G130" s="20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -3000,7 +3008,7 @@
       <c r="E131" s="21"/>
       <c r="F131" s="21"/>
       <c r="G131" s="22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H131" s="21"/>
       <c r="I131" s="21"/>
@@ -3010,20 +3018,20 @@
         <v>29.0</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D132" s="16"/>
       <c r="E132" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F132" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G132" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H132" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I132" s="18"/>
     </row>
@@ -3034,7 +3042,7 @@
       <c r="E133" s="19"/>
       <c r="F133" s="19"/>
       <c r="G133" s="20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3046,7 +3054,7 @@
       <c r="E134" s="19"/>
       <c r="F134" s="19"/>
       <c r="G134" s="20" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -3058,7 +3066,7 @@
       <c r="E135" s="21"/>
       <c r="F135" s="21"/>
       <c r="G135" s="22" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H135" s="21"/>
       <c r="I135" s="21"/>
@@ -3068,20 +3076,20 @@
         <v>30.0</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D136" s="16"/>
       <c r="E136" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G136" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H136" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I136" s="18"/>
     </row>
@@ -3092,7 +3100,7 @@
       <c r="E137" s="19"/>
       <c r="F137" s="19"/>
       <c r="G137" s="20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -3104,7 +3112,7 @@
       <c r="E138" s="19"/>
       <c r="F138" s="19"/>
       <c r="G138" s="20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -3116,7 +3124,7 @@
       <c r="E139" s="19"/>
       <c r="F139" s="19"/>
       <c r="G139" s="20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -3128,7 +3136,7 @@
       <c r="E140" s="19"/>
       <c r="F140" s="19"/>
       <c r="G140" s="20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
@@ -3140,7 +3148,7 @@
       <c r="E141" s="19"/>
       <c r="F141" s="19"/>
       <c r="G141" s="20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
@@ -3152,7 +3160,7 @@
       <c r="E142" s="19"/>
       <c r="F142" s="19"/>
       <c r="G142" s="20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -3164,7 +3172,7 @@
       <c r="E143" s="21"/>
       <c r="F143" s="21"/>
       <c r="G143" s="22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H143" s="21"/>
       <c r="I143" s="21"/>
@@ -3174,20 +3182,20 @@
         <v>31.0</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D144" s="16"/>
       <c r="E144" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G144" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H144" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I144" s="18"/>
     </row>
@@ -3198,7 +3206,7 @@
       <c r="E145" s="19"/>
       <c r="F145" s="19"/>
       <c r="G145" s="20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
@@ -3210,7 +3218,7 @@
       <c r="E146" s="19"/>
       <c r="F146" s="19"/>
       <c r="G146" s="20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -3222,7 +3230,7 @@
       <c r="E147" s="19"/>
       <c r="F147" s="19"/>
       <c r="G147" s="20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -3234,7 +3242,7 @@
       <c r="E148" s="19"/>
       <c r="F148" s="19"/>
       <c r="G148" s="20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -3246,7 +3254,7 @@
       <c r="E149" s="19"/>
       <c r="F149" s="19"/>
       <c r="G149" s="20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
@@ -3258,7 +3266,7 @@
       <c r="E150" s="19"/>
       <c r="F150" s="19"/>
       <c r="G150" s="20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -3270,7 +3278,7 @@
       <c r="E151" s="21"/>
       <c r="F151" s="21"/>
       <c r="G151" s="22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H151" s="21"/>
       <c r="I151" s="21"/>
@@ -3280,20 +3288,20 @@
         <v>32.0</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D152" s="16"/>
       <c r="E152" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G152" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H152" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I152" s="18"/>
     </row>
@@ -3304,7 +3312,7 @@
       <c r="E153" s="19"/>
       <c r="F153" s="19"/>
       <c r="G153" s="20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -3316,7 +3324,7 @@
       <c r="E154" s="19"/>
       <c r="F154" s="19"/>
       <c r="G154" s="20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
@@ -3328,7 +3336,7 @@
       <c r="E155" s="19"/>
       <c r="F155" s="19"/>
       <c r="G155" s="20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -3340,7 +3348,7 @@
       <c r="E156" s="19"/>
       <c r="F156" s="19"/>
       <c r="G156" s="20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -3352,7 +3360,7 @@
       <c r="E157" s="19"/>
       <c r="F157" s="19"/>
       <c r="G157" s="20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
@@ -3364,7 +3372,7 @@
       <c r="E158" s="19"/>
       <c r="F158" s="19"/>
       <c r="G158" s="20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -3376,7 +3384,7 @@
       <c r="E159" s="21"/>
       <c r="F159" s="21"/>
       <c r="G159" s="22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H159" s="21"/>
       <c r="I159" s="21"/>
@@ -3386,20 +3394,20 @@
         <v>33.0</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D160" s="16"/>
       <c r="E160" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F160" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G160" s="30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H160" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I160" s="18"/>
     </row>
@@ -3410,7 +3418,7 @@
       <c r="E161" s="19"/>
       <c r="F161" s="19"/>
       <c r="G161" s="20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
@@ -3422,7 +3430,7 @@
       <c r="E162" s="19"/>
       <c r="F162" s="19"/>
       <c r="G162" s="20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -3434,7 +3442,7 @@
       <c r="E163" s="19"/>
       <c r="F163" s="19"/>
       <c r="G163" s="20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
@@ -3446,7 +3454,7 @@
       <c r="E164" s="19"/>
       <c r="F164" s="19"/>
       <c r="G164" s="20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -3458,7 +3466,7 @@
       <c r="E165" s="19"/>
       <c r="F165" s="19"/>
       <c r="G165" s="20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
@@ -3470,7 +3478,7 @@
       <c r="E166" s="19"/>
       <c r="F166" s="19"/>
       <c r="G166" s="20" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -3482,14 +3490,14 @@
       <c r="E167" s="21"/>
       <c r="F167" s="21"/>
       <c r="G167" s="22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H167" s="21"/>
       <c r="I167" s="21"/>
     </row>
     <row r="168">
       <c r="B168" s="11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C168" s="12"/>
       <c r="D168" s="12"/>
@@ -3504,20 +3512,20 @@
         <v>34.0</v>
       </c>
       <c r="C169" s="31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D169" s="25"/>
       <c r="E169" s="24" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F169" s="23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G169" s="24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H169" s="24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I169" s="26"/>
     </row>
